--- a/ExcelData/dialog/mainDialogData.xlsx
+++ b/ExcelData/dialog/mainDialogData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -85,7 +85,16 @@
     <t>D2001</t>
   </si>
   <si>
+    <t>洛斯</t>
+  </si>
+  <si>
+    <t>喂，是小兔子吗？我是之前选拔赛评委席上的洛斯，你还记得我吗？</t>
+  </si>
+  <si>
     <t>D2002</t>
+  </si>
+  <si>
+    <t>米米毛</t>
   </si>
   <si>
     <t>D2003</t>
@@ -1043,7 +1052,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1130,33 +1139,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" ht="28.8" spans="2:5">
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>-1</v>
@@ -1221,22 +1239,22 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/dialog/mainDialogData.xlsx
+++ b/ExcelData/dialog/mainDialogData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -37,6 +37,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>dialogTag</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>##</t>
   </si>
   <si>
+    <t>对每一组对话的标识符</t>
+  </si>
+  <si>
     <t>说话者</t>
   </si>
   <si>
@@ -82,7 +88,10 @@
     <t>多分支</t>
   </si>
   <si>
-    <t>D2001</t>
+    <t>D00001</t>
+  </si>
+  <si>
+    <t>MainChapter2</t>
   </si>
   <si>
     <t>洛斯</t>
@@ -91,28 +100,25 @@
     <t>喂，是小兔子吗？我是之前选拔赛评委席上的洛斯，你还记得我吗？</t>
   </si>
   <si>
-    <t>D2002</t>
-  </si>
-  <si>
-    <t>米米毛</t>
-  </si>
-  <si>
-    <t>D2003</t>
-  </si>
-  <si>
-    <t>D2004</t>
-  </si>
-  <si>
-    <t>D3001</t>
-  </si>
-  <si>
-    <t>D3002</t>
-  </si>
-  <si>
-    <t>D3003</t>
-  </si>
-  <si>
-    <t>D3004</t>
+    <t>D00002</t>
+  </si>
+  <si>
+    <t>#name#</t>
+  </si>
+  <si>
+    <t>呃，我叫#name#，记得……您是那个尾巴总甩个不停的……嗯，评委？</t>
+  </si>
+  <si>
+    <t>D00003</t>
+  </si>
+  <si>
+    <t>哈哈，那就好。我对你印象挺深，想和你聊聊。明天有空吗？</t>
+  </si>
+  <si>
+    <t>D00004</t>
+  </si>
+  <si>
+    <t>哦？难道是关于比赛的事情吗?</t>
   </si>
 </sst>
 </file>
@@ -797,6 +803,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,25 +1062,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="16.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.7777777777778" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="33.6666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.7777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="33.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,91 +1105,127 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="32" customHeight="1" spans="1:8">
+    <row r="2" ht="32" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="28.8" spans="1:8">
+    <row r="3" ht="28.8" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" ht="28.8" spans="2:5">
+    <row r="4" ht="28.8" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="2:6">
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    <row r="6" ht="28.8" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -1190,74 +1239,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.4444444444444" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/ExcelData/dialog/mainDialogData.xlsx
+++ b/ExcelData/dialog/mainDialogData.xlsx
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
